--- a/Projeto_Integrador/Dashboard Simples com EXCEL/Vendas.xlsx
+++ b/Projeto_Integrador/Dashboard Simples com EXCEL/Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84284528572\OneDrive\Documentos\GitHub\Segundo_Semestre_Ciencia_de_Dados\Projeto_Integrador\Dashboard Simples com EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F596E520587A4FA1EFD379C1FF9190A95C29593C" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9A96F318-BA14-4C30-9D3A-F712E6482797}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F596E520587A4FA1EFD379C1FF9190A95C29593C" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{99E05660-6FBC-4508-8B18-5D83A7A72CC9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -339,7 +339,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -378,91 +378,91 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>65056</v>
+        <v>65893</v>
       </c>
       <c r="B2" s="2">
-        <v>43800</v>
+        <v>43804</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G2" s="3">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>65501</v>
+        <v>66040</v>
       </c>
       <c r="B3" s="2">
-        <v>43802</v>
+        <v>43805</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>65707</v>
+        <v>66240</v>
       </c>
       <c r="B4" s="2">
-        <v>43803</v>
+        <v>43806</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>150</v>
       </c>
       <c r="G4" s="3">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>65750</v>
+        <v>66724</v>
       </c>
       <c r="B5" s="2">
-        <v>43803</v>
+        <v>43809</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G5" s="3">
         <v>600</v>
@@ -470,13 +470,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>65810</v>
+        <v>67469</v>
       </c>
       <c r="B6" s="2">
-        <v>43804</v>
+        <v>43812</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -493,266 +493,266 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>65830</v>
+        <v>68226</v>
       </c>
       <c r="B7" s="2">
-        <v>43804</v>
+        <v>43816</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>65859</v>
+        <v>68275</v>
       </c>
       <c r="B8" s="2">
-        <v>43804</v>
+        <v>43816</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>150</v>
       </c>
       <c r="G8" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>65893</v>
+        <v>69145</v>
       </c>
       <c r="B9" s="2">
-        <v>43804</v>
+        <v>43820</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>240</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>66029</v>
+        <v>69184</v>
       </c>
       <c r="B10" s="2">
-        <v>43805</v>
+        <v>43820</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>66040</v>
+        <v>69676</v>
       </c>
       <c r="B11" s="2">
-        <v>43805</v>
+        <v>43823</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3">
-        <v>60</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>66240</v>
+        <v>69730</v>
       </c>
       <c r="B12" s="2">
-        <v>43806</v>
+        <v>43823</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3">
-        <v>450</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>66304</v>
+        <v>65810</v>
       </c>
       <c r="B13" s="2">
-        <v>43806</v>
+        <v>43804</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>66321</v>
+        <v>66404</v>
       </c>
       <c r="B14" s="2">
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>66404</v>
+        <v>67571</v>
       </c>
       <c r="B15" s="2">
-        <v>43807</v>
+        <v>43813</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>850</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>66637</v>
+        <v>68113</v>
       </c>
       <c r="B16" s="2">
-        <v>43808</v>
+        <v>43815</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>170</v>
       </c>
       <c r="G16" s="3">
-        <v>510</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>66672</v>
+        <v>68217</v>
       </c>
       <c r="B17" s="2">
-        <v>43808</v>
+        <v>43816</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>66713</v>
+        <v>68753</v>
       </c>
       <c r="B18" s="2">
-        <v>43808</v>
+        <v>43818</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -769,232 +769,232 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>66724</v>
+        <v>68989</v>
       </c>
       <c r="B19" s="2">
-        <v>43809</v>
+        <v>43819</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G19" s="3">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>66945</v>
+        <v>69714</v>
       </c>
       <c r="B20" s="2">
-        <v>43810</v>
+        <v>43823</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>170</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>67063</v>
+        <v>65056</v>
       </c>
       <c r="B21" s="2">
-        <v>43810</v>
+        <v>43800</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3">
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>67469</v>
+        <v>65501</v>
       </c>
       <c r="B22" s="2">
-        <v>43812</v>
+        <v>43802</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>67571</v>
+        <v>65750</v>
       </c>
       <c r="B23" s="2">
-        <v>43813</v>
+        <v>43803</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>67907</v>
+        <v>65830</v>
       </c>
       <c r="B24" s="2">
-        <v>43814</v>
+        <v>43804</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>68113</v>
+        <v>65859</v>
       </c>
       <c r="B25" s="2">
-        <v>43815</v>
+        <v>43804</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G25" s="3">
-        <v>170</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>68217</v>
+        <v>66029</v>
       </c>
       <c r="B26" s="2">
-        <v>43816</v>
+        <v>43805</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>68226</v>
+        <v>66304</v>
       </c>
       <c r="B27" s="2">
-        <v>43816</v>
+        <v>43806</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>68275</v>
+        <v>66945</v>
       </c>
       <c r="B28" s="2">
-        <v>43816</v>
+        <v>43810</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G28" s="3">
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1045,79 +1045,79 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>68753</v>
+        <v>69286</v>
       </c>
       <c r="B31" s="2">
-        <v>43818</v>
+        <v>43821</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G31" s="3">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>68989</v>
+        <v>69917</v>
       </c>
       <c r="B32" s="2">
-        <v>43819</v>
+        <v>43824</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G32" s="3">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>69104</v>
+        <v>65707</v>
       </c>
       <c r="B33" s="2">
-        <v>43820</v>
+        <v>43803</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>69104</v>
+        <v>66321</v>
       </c>
       <c r="B34" s="2">
-        <v>43820</v>
+        <v>43806</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -1126,70 +1126,70 @@
         <v>9</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
         <v>100</v>
       </c>
       <c r="G34" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>69115</v>
+        <v>66637</v>
       </c>
       <c r="B35" s="2">
-        <v>43820</v>
+        <v>43808</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>69145</v>
+        <v>66672</v>
       </c>
       <c r="B36" s="2">
-        <v>43820</v>
+        <v>43808</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="3">
         <v>200</v>
       </c>
       <c r="G36" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>69184</v>
+        <v>66713</v>
       </c>
       <c r="B37" s="2">
-        <v>43820</v>
+        <v>43808</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -1206,140 +1206,140 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>69220</v>
+        <v>67063</v>
       </c>
       <c r="B38" s="2">
-        <v>43821</v>
+        <v>43810</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G38" s="3">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>69286</v>
+        <v>67907</v>
       </c>
       <c r="B39" s="2">
-        <v>43821</v>
+        <v>43814</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G39" s="3">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>69676</v>
+        <v>69104</v>
       </c>
       <c r="B40" s="2">
-        <v>43823</v>
+        <v>43820</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G40" s="3">
-        <v>320</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>69714</v>
+        <v>69104</v>
       </c>
       <c r="B41" s="2">
-        <v>43823</v>
+        <v>43820</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>69730</v>
+        <v>69115</v>
       </c>
       <c r="B42" s="2">
-        <v>43823</v>
+        <v>43820</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>69917</v>
+        <v>69220</v>
       </c>
       <c r="B43" s="2">
-        <v>43824</v>
+        <v>43821</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>340</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2300,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G43" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:G43">
+      <sortCondition ref="C1:C43"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
